--- a/xlsx/世界500强_intext.xlsx
+++ b/xlsx/世界500强_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1176">
   <si>
     <t>世界500强</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>政策_政策_管理_世界500强</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%8E%9B</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>豐田汽車</t>
+    <t>丰田汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -95,19 +95,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9C%86%E6%AE%BC%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>蜆殼公司</t>
+    <t>蚬壳公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -137,19 +137,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9F%B3%E6%B2%B9%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>英國石油公司</t>
+    <t>英国石油公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%81%A5%E5%BA%B7%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>聯合健康保險</t>
+    <t>联合健康保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%9F%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>三星電子</t>
+    <t>三星电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -179,19 +179,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>通用汽車</t>
+    <t>通用汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A9%B1%E9%9B%BB%E5%A0%B1%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>美國電話電報公司</t>
+    <t>美国电话电报公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E6%B1%BD%E8%BD%A6</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%BB%BA%E7%AF%89%E5%B7%A5%E7%A8%8B%E7%B8%BD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>中國建築工程總公司</t>
+    <t>中国建筑工程总公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%9B%9B</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C</t>
   </si>
   <si>
-    <t>亞馬遜</t>
+    <t>亚马逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E5%BA%B7</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%BB%BA%E8%AE%BE%E9%93%B6%E8%A1%8C</t>
@@ -251,31 +251,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%94%B0%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>本田汽車</t>
+    <t>本田汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E9%81%94%E7%88%BE</t>
   </si>
   <si>
-    <t>道達爾</t>
+    <t>道达尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E9%9B%BB%E6%B0%A3</t>
   </si>
   <si>
-    <t>通用電氣</t>
+    <t>通用电气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E8%A8%8A</t>
   </si>
   <si>
-    <t>威訊</t>
+    <t>威讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%83%B5%E6%94%BF</t>
   </si>
   <si>
-    <t>日本郵政</t>
+    <t>日本邮政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%81%94</t>
@@ -293,19 +293,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E6%A0%BC%E6%9E%97</t>
   </si>
   <si>
-    <t>沃爾格林</t>
+    <t>沃尔格林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%BE%B2%E6%A5%AD%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中國農業銀行</t>
+    <t>中国农业银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%B9%B3%E5%AE%89</t>
   </si>
   <si>
-    <t>中國平安</t>
+    <t>中国平安</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B1%BD%E9%9B%86%E5%9B%A2</t>
@@ -323,19 +323,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%B7%B4%E9%BB%8E%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>法國巴黎銀行</t>
+    <t>法国巴黎银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>日產汽車</t>
+    <t>日产汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E9%BE%8D</t>
   </si>
   <si>
-    <t>雪佛龍</t>
+    <t>雪佛龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%BF%E5%88%A9%E7%BE%8E</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%A7%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>中國移動</t>
+    <t>中国移动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%A4%A7%E9%80%9A</t>
@@ -359,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E4%BF%A1%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>日本電信電話</t>
+    <t>日本电信电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%BA%BA%E5%A3%BD%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>中國人壽保險</t>
+    <t>中国人寿保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9D%E9%A9%AC%E9%9B%86%E5%9B%A2</t>
@@ -389,25 +389,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%B8%AD%E9%90%B5</t>
   </si>
   <si>
-    <t>中國中鐵</t>
+    <t>中国中铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%BF%9D%E8%AA%A0</t>
   </si>
   <si>
-    <t>英國保誠</t>
+    <t>英国保诚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%90%B5%E5%BB%BA</t>
   </si>
   <si>
-    <t>中國鐵建</t>
+    <t>中国铁建</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BE%97%E5%AF%B6</t>
   </si>
   <si>
-    <t>家得寶</t>
+    <t>家得宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>美國銀行</t>
+    <t>美国银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%A4%A9%E7%84%B6%E6%B0%94%E5%B7%A5%E4%B8%9A%E8%82%A1%E4%BB%BD%E5%85%AC%E5%8F%B8</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%80%E5%B7%A2</t>
@@ -455,19 +455,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%96%80%E5%AD%90</t>
   </si>
   <si>
-    <t>西門子</t>
+    <t>西门子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E6%A8%82%E7%A6%8F</t>
   </si>
   <si>
-    <t>家樂福</t>
+    <t>家乐福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%A2%A8%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>東風集團</t>
+    <t>东风集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF</t>
@@ -485,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%8A%80%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>軟銀集團</t>
+    <t>软银集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%9D%A6%E5%BE%B7%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>桑坦德銀行</t>
+    <t>桑坦德银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E6%97%97%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>花旗集團</t>
+    <t>花旗集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E7%9F%B3%E6%B2%B9</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%83%C2%B7%E5%8D%9A%E4%B8%96%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>勞勃·博世公司</t>
+    <t>劳勃·博世公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E7%94%B5%E4%BF%A1</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>現代汽車</t>
+    <t>现代汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%8D%A1%E6%96%AF%E7%89%B9</t>
@@ -569,13 +569,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%82%BA</t>
   </si>
   <si>
-    <t>華為</t>
+    <t>华为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E6%BD%A4%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>華潤集團</t>
+    <t>华润集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -587,13 +587,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%97%BA%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>永旺集團</t>
+    <t>永旺集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%99%E8%B1%90</t>
   </si>
   <si>
-    <t>滙豐</t>
+    <t>滙丰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%BB%BA%E8%AE%BE%E9%9B%86%E5%9B%A2_(%E4%B8%AD%E5%9B%BD)</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%82%91%E8%8F%AF%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>英傑華集團</t>
+    <t>英杰华集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UNIPER</t>
@@ -635,19 +635,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E7%94%9F</t>
   </si>
   <si>
-    <t>強生</t>
+    <t>强生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E6%BD%94</t>
   </si>
   <si>
-    <t>寶潔</t>
+    <t>宝洁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%8D%97%E6%96%B9%E7%94%B5%E7%BD%91</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%BA%A4%E9%80%9A%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>中國交通建設</t>
+    <t>中国交通建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%A4%96%E8%B4%B8%E9%93%B6%E8%A1%8C</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E8%88%88%E6%A5%AD%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>法國興業銀行</t>
+    <t>法国兴业银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%95%E5%B0%BC%E9%BB%91%E5%86%8D%E4%BF%9D%E9%99%A9</t>
@@ -725,37 +725,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%94%9F%E5%91%BD%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>日本生命保險</t>
+    <t>日本生命保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E9%BB%8E%E4%B8%96%E9%87%91%E8%9E%8D%E6%9C%8D%E5%8B%99%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>蘇黎世金融服務集團</t>
+    <t>苏黎世金融服务集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A1%94%E7%83%8F%E8%81%AF%E5%90%88%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>伊塔烏聯合銀行</t>
+    <t>伊塔乌联合银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%BA%BA%E6%B0%91%E4%BF%9D%E9%9A%AA%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>中國人民保險集團</t>
+    <t>中国人民保险集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%B5%B7%E6%B4%8B%E7%9F%B3%E6%B2%B9</t>
   </si>
   <si>
-    <t>中國海洋石油</t>
+    <t>中国海洋石油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B8%E7%B4%85</t>
   </si>
   <si>
-    <t>丸紅</t>
+    <t>丸红</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E9%82%AE%E6%94%BF</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%BA%94%E7%A4%A6</t>
   </si>
   <si>
-    <t>中國五礦</t>
+    <t>中国五矿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%9F%83%E5%BE%B7%E9%93%B6%E8%A1%8C%E9%9B%86%E5%9B%A2</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%83%BD%E6%9C%83%E4%BA%BA%E5%A3%BD%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>大都會人壽保險</t>
+    <t>大都会人寿保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E7%89%A9%E4%BA%A7%E9%9B%86%E5%9B%A2</t>
@@ -857,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%98%BF%E5%BE%B9%E4%B8%B9%E5%B0%BC%E7%88%BE%E6%96%AF%E7%B1%B3%E5%BE%B7%E8%98%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>美國阿徹丹尼爾斯米德蘭公司</t>
+    <t>美国阿彻丹尼尔斯米德兰公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%85%B5%E5%99%A8%E5%B7%A5%E4%B8%9A%E9%9B%86%E5%9B%A2</t>
@@ -881,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%8C%85%E8%A3%B9</t>
   </si>
   <si>
-    <t>聯合包裹</t>
+    <t>联合包裹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A6%E4%BF%9D%E9%99%A9</t>
@@ -899,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E7%94%9F%E5%91%BD%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>第一生命保險</t>
+    <t>第一生命保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8C%96%E9%9B%86%E5%9B%A2</t>
@@ -911,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%89%B9%E7%88%BE</t>
   </si>
   <si>
-    <t>英特爾</t>
+    <t>英特尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E5%95%86%E4%BA%8B</t>
@@ -929,19 +929,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E4%BF%9D%E9%9A%AA%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>全球保險集團</t>
+    <t>全球保险集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E9%81%94%E8%B1%90</t>
   </si>
   <si>
-    <t>沃達豐</t>
+    <t>沃达丰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%88%A9%E8%8F%AF</t>
   </si>
   <si>
-    <t>聯合利華</t>
+    <t>联合利华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E9%93%B6%E8%A1%8C</t>
@@ -965,19 +965,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>西班牙電信</t>
+    <t>西班牙电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%8A%80%E8%A1%93%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>聯合技術公司</t>
+    <t>联合技术公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%B3%BD%E6%A8%82%E7%B1%B3%E5%A1%94%E7%88%BE</t>
   </si>
   <si>
-    <t>安賽樂米塔爾</t>
+    <t>安赛乐米塔尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
@@ -989,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%AB%BE</t>
   </si>
   <si>
-    <t>雷諾</t>
+    <t>雷诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E7%9F%B3%E6%B2%B9</t>
@@ -1001,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E6%A9%8B%E5%89%B5%E6%A5%AD</t>
   </si>
   <si>
-    <t>魏橋創業</t>
+    <t>魏桥创业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8B%89%E6%9D%BE%E7%9F%B3%E6%B2%B9</t>
@@ -1013,7 +1013,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%89%B9%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>華特迪士尼公司</t>
+    <t>华特迪士尼公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%88%AA%E7%A9%BA%E5%B7%A5%E4%B8%9A%E9%9B%86%E5%9B%A2</t>
@@ -1037,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E6%97%A5%E8%81%AF%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>三菱日聯金融集團</t>
+    <t>三菱日联金融集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E9%98%BF%E9%9C%8D%E5%BE%B7</t>
@@ -1067,19 +1067,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%B0%8F</t>
   </si>
   <si>
-    <t>羅氏</t>
+    <t>罗氏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%88%AA%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>海航集團</t>
+    <t>海航集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>交通銀行</t>
+    <t>交通银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%B8%AD%E4%BF%A1%E9%9B%86%E5%9B%A2</t>
@@ -1091,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%9D%E7%91%9E</t>
   </si>
   <si>
-    <t>輝瑞</t>
+    <t>辉瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E8%80%B3</t>
@@ -1109,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E9%9B%BB%E5%8A%9B%E5%85%AC%E7%A4%BE</t>
   </si>
   <si>
-    <t>韓國電力公社</t>
+    <t>韩国电力公社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E5%B8%8C%E5%BE%B7%C2%B7%E9%A9%AC%E4%B8%81</t>
@@ -1121,19 +1121,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%BF%AB%E9%81%9E</t>
   </si>
   <si>
-    <t>聯邦快遞</t>
+    <t>联邦快递</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%A7%E8%88%87%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>慧與科技</t>
+    <t>慧与科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E5%A8%81%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>正威集團</t>
+    <t>正威集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%9B%BD%E5%AE%B6%E7%9F%B3%E6%B2%B9%E5%85%AC%E5%8F%B8</t>
@@ -1151,19 +1151,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>東京電力</t>
+    <t>东京电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%8F%AF%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>諾華公司</t>
+    <t>诺华公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E7%A7%91%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>思科系統</t>
+    <t>思科系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E9%93%B6%E8%A1%8C</t>
@@ -1187,19 +1187,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E5%9C%8B%E5%AE%B6%E7%9F%B3%E6%B2%B9%E8%82%A1%E4%BB%BD</t>
   </si>
   <si>
-    <t>泰國國家石油股份</t>
+    <t>泰国国家石油股份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E6%B5%B7%E4%B8%8A%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>東京海上控股</t>
+    <t>东京海上控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E6%99%AE</t>
@@ -1235,19 +1235,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E8%97%A5%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>國藥控股</t>
+    <t>国药控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LG%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>LG電子</t>
+    <t>LG电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E4%BD%8F%E5%8F%8B%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>三井住友金融集團</t>
+    <t>三井住友金融集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E5%AE%9E%E5%B7%A5%E4%B8%9A</t>
@@ -1265,19 +1265,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%86%E5%AF%B6%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>來寶集團</t>
+    <t>来宝集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%B5%B7%E6%96%AF-%E5%B8%83%E5%B8%8C%E8%8B%B1%E5%8D%9A%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>安海斯-布希英博集團</t>
+    <t>安海斯-布希英博集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E5%9B%BD%E5%AE%B6%E7%9F%B3%E6%B2%B9%E5%85%AC%E5%8F%B8</t>
@@ -1337,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9B%E5%95%86%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>招商銀行</t>
+    <t>招商银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%9B%BD%E5%AE%B6%E9%93%B6%E8%A1%8C</t>
@@ -1349,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E6%B2%83%E6%96%AF</t>
   </si>
   <si>
-    <t>沃爾沃斯</t>
+    <t>沃尔沃斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/KDDI</t>
@@ -1373,13 +1373,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E4%BF%A1%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>華信能源</t>
+    <t>华信能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B0%8D%E5%A4%96%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>西班牙對外銀行</t>
+    <t>西班牙对外银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E6%A3%AE%E5%85%8B%E8%99%8F%E4%BC%AF</t>
@@ -1397,19 +1397,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E6%83%B3%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>聯想集團</t>
+    <t>联想集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%97%A5%E9%90%B5%E4%BD%8F%E9%87%91</t>
   </si>
   <si>
-    <t>新日鐵住金</t>
+    <t>新日铁住金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%88%E6%A5%AD%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>興業銀行</t>
+    <t>兴业银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E6%98%82%E9%9B%86%E5%9B%A2</t>
@@ -1433,25 +1433,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%B9%E8%88%B6%E9%87%8D%E5%B7%A5%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>中國船舶重工集團</t>
+    <t>中国船舶重工集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%B1%80%C2%B7%E8%BF%AA%E5%A5%A7_(%E5%93%81%E7%89%8C)</t>
   </si>
   <si>
-    <t>克里斯汀·迪奧 (品牌)</t>
+    <t>克里斯汀·迪奥 (品牌)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%8F%A3%E5%8F%AF%E6%A8%82%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>可口可樂公司</t>
+    <t>可口可乐公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A3%9D</t>
   </si>
   <si>
-    <t>電裝</t>
+    <t>电装</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E9%80%9A</t>
@@ -1463,7 +1463,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%B1%BD%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>廣汽集團</t>
+    <t>广汽集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B0%E7%9B%8A%E5%9B%BD%E9%99%85</t>
@@ -1481,43 +1481,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%81%AF%E9%80%9A</t>
   </si>
   <si>
-    <t>中國聯通</t>
+    <t>中国联通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8F%E5%8F%8B%E7%94%9F%E5%91%BD%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>住友生命保險</t>
+    <t>住友生命保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E6%B5%A6%E6%9D%B1%E7%99%BC%E5%B1%95%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>上海浦東發展銀行</t>
+    <t>上海浦东发展银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%8F%AF%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>韓華集團</t>
+    <t>韩华集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A1%94%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>塔塔汽車</t>
+    <t>塔塔汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%8B%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>中國鋁業</t>
+    <t>中国铝业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E7%89%A9%E7%94%A2</t>
   </si>
   <si>
-    <t>三井物產</t>
+    <t>三井物产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E5%88%A9%E9%87%91%E8%9E%8D</t>
@@ -1541,25 +1541,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>中國太平洋保險</t>
+    <t>中国太平洋保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>美國航空</t>
+    <t>美国航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%85%8B%E8%97%A5%E5%BB%A0</t>
   </si>
   <si>
-    <t>默克藥廠</t>
+    <t>默克药厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>達美航空</t>
+    <t>达美航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%80%9D%E4%B9%B0</t>
@@ -1583,13 +1583,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E6%9D%B1%E5%95%86%E5%9F%8E</t>
   </si>
   <si>
-    <t>京東商城</t>
+    <t>京东商城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E9%9B%BB%E6%A9%9F</t>
   </si>
   <si>
-    <t>三菱電機</t>
+    <t>三菱电机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%87%E5%9F%83%E5%AD%9A</t>
@@ -1607,7 +1607,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E9%AE%91%E7%88%BE%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>加拿大鮑爾集團</t>
+    <t>加拿大鲍尔集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%A3%AB%E4%B8%B9%E5%88%A9</t>
@@ -1631,31 +1631,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E8%98%AD%E7%B4%A0%E5%8F%B2%E5%85%8B</t>
   </si>
   <si>
-    <t>葛蘭素史克</t>
+    <t>葛兰素史克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%8F%AF%E8%83%BD%E9%9B%86%E5%9C%98%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>中國華能集團公司</t>
+    <t>中国华能集团公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%8F%AF%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>神華集團</t>
+    <t>神华集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E5%9C%B0%E6%8E%A7%E8%82%A1%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>綠地控股集團</t>
+    <t>绿地控股集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A1%E5%92%8C%E6%B4%8B%E8%A1%8C</t>
@@ -1673,7 +1673,7 @@
     <t>https://zh.wikipedia.org/wiki/ACS%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>ACS集團</t>
+    <t>ACS集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8F%E5%8F%8B%E5%95%86%E4%BA%8B</t>
@@ -1691,7 +1691,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%85%8B%E8%90%8A%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>巴克萊銀行</t>
+    <t>巴克莱银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E7%89%B9%E7%90%86%E5%85%8B</t>
@@ -1703,7 +1703,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>聯合航空</t>
+    <t>联合航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
@@ -1721,7 +1721,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E9%8A%80%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>瑞銀集團</t>
+    <t>瑞银集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%81%94%E5%90%88%E5%9C%A3%E4%BF%9D%E7%BD%97%E9%93%B6%E8%A1%8C</t>
@@ -1733,49 +1733,49 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E9%87%8D%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>三菱重工業</t>
+    <t>三菱重工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E7%A2%A9%E8%81%AF%E5%90%88%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>和碩聯合科技</t>
+    <t>和硕联合科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%A3%AB%E5%9F%BA</t>
   </si>
   <si>
-    <t>馬士基</t>
+    <t>马士基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%9F%BA%E5%B7%A5%E6%A5%AD%E8%82%A1%E4%BB%BD</t>
   </si>
   <si>
-    <t>沙基工業股份</t>
+    <t>沙基工业股份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%B1%AA%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>富豪集團</t>
+    <t>富豪集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -1787,13 +1787,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%8E%8E%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>漢莎航空</t>
+    <t>汉莎航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E7%9A%87%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>加拿大皇家銀行</t>
+    <t>加拿大皇家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%A3%AE%E5%93%B2</t>
@@ -1805,19 +1805,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9C%8B%E5%AE%B6%E7%9F%B3%E6%B2%B9%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>西班牙國家石油公司</t>
+    <t>西班牙国家石油公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E7%A7%91</t>
   </si>
   <si>
-    <t>萬科</t>
+    <t>万科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%AF%B6%E5%88%A9</t>
   </si>
   <si>
-    <t>森寶利</t>
+    <t>森宝利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%83%BD%E5%BB%BA</t>
@@ -1841,43 +1841,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E9%80%9A</t>
   </si>
   <si>
-    <t>美國運通</t>
+    <t>美国运通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9B%E6%8B%93%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>力拓集團</t>
+    <t>力拓集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%9C%8B%E5%AE%B6%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>法國國家鐵路</t>
+    <t>法国国家铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%B8%AD%E8%BB%8A</t>
   </si>
   <si>
-    <t>中國中車</t>
+    <t>中国中车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%B1%9F%E5%92%8C%E8%A8%98%E5%AF%A6%E6%A5%AD</t>
   </si>
   <si>
-    <t>長江和記實業</t>
+    <t>长江和记实业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%80%E4%B8%AD%E8%83%BD%E6%BA%90%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>冀中能源集團</t>
+    <t>冀中能源集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E9%9A%9B%E8%8F%AF%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>新興際華集團</t>
+    <t>新兴际华集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E4%BF%A1%E7%B2%BE%E6%9C%BA</t>
@@ -1889,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%86%E6%84%9B%E5%BE%B7</t>
   </si>
   <si>
-    <t>來愛德</t>
+    <t>来爱德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%B6%E9%95%BF%E7%9F%B3%E6%B2%B9%E9%9B%86%E5%9B%A2</t>
@@ -1901,13 +1901,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%95%E4%BF%A1%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>裕信銀行</t>
+    <t>裕信银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%89%E5%A4%A7%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>中國光大集團</t>
+    <t>中国光大集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%90%E5%90%89</t>
@@ -1919,19 +1919,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%BE%B7%E7%BE%85%E6%8B%89</t>
   </si>
   <si>
-    <t>伊比德羅拉</t>
+    <t>伊比德罗拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E8%81%AF%E9%82%A6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>澳洲聯邦銀行</t>
+    <t>澳洲联邦银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%A9%9F%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>國機集團</t>
+    <t>国机集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E6%A3%AE%E5%B0%A4%E6%96%AF</t>
@@ -1943,7 +1943,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%AA%E5%A4%A9%E7%A7%91%E6%8A%80%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>中國航天科技集團</t>
+    <t>中国航天科技集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%95%E8%A5%BF%E7%85%A4%E4%B8%9A%E5%8C%96%E5%B7%A5</t>
@@ -1955,7 +1955,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%81%86%E5%A4%A7%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>中國恆大集團</t>
+    <t>中国恒大集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E8%A5%BF%E9%93%9C%E4%B8%9A%E8%82%A1%E4%BB%BD</t>
@@ -1967,7 +1967,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%90%8D%E4%BF%9D%E6%97%A5%E6%9C%AC%E8%88%88%E4%BA%9E%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>損保日本興亞控股</t>
+    <t>损保日本兴亚控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%88%A9%E9%9B%86%E5%9B%A2</t>
@@ -1979,25 +1979,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%94%E9%9B%86%E5%9C%98%E8%82%A1%E4%BB%BD</t>
   </si>
   <si>
-    <t>安達集團股份</t>
+    <t>安达集团股份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%88%A9%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>吉利汽車</t>
+    <t>吉利汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E5%8B%95%E5%8A%9B</t>
   </si>
   <si>
-    <t>通用動力</t>
+    <t>通用动力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>英國電信</t>
+    <t>英国电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%B3%E8%83%BD</t>
@@ -2009,13 +2009,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%94%A2%E4%B8%AD%E5%A4%A7%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>物產中大集團</t>
+    <t>物产中大集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E5%8C%96%E5%AD%B8%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>三菱化學控股</t>
+    <t>三菱化学控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%85%E5%92%8C%E5%BF%85%E6%8B%93</t>
@@ -2033,99 +2033,54 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B0%E7%94%B0%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
-    <t>丰田汽车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E7%9F%B3%E6%B2%B9%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>英国石油公司</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%9F%E7%94%B5%E5%AD%90</t>
   </si>
   <si>
-    <t>三星电子</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
-    <t>通用汽车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E8%AF%9D%E7%94%B5%E6%8A%A5%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>美国电话电报公司</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E8%BE%BE%E5%B0%94</t>
   </si>
   <si>
-    <t>道达尔</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B4%BB%E6%B5%B7%E7%B2%BE%E5%AF%86</t>
   </si>
   <si>
-    <t>鴻海精密</t>
+    <t>鸿海精密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E7%94%B5%E6%B0%94</t>
   </si>
   <si>
-    <t>通用电气</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%86%9C%E4%B8%9A%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
-    <t>中国农业银行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E9%BE%99</t>
   </si>
   <si>
-    <t>雪佛龙</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%B9%B3%E5%AE%89</t>
   </si>
   <si>
-    <t>中国平安</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%85%B4%E4%B8%9A%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
-    <t>法国兴业银行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%A9%AC%E9%80%8A</t>
   </si>
   <si>
-    <t>亚马逊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%A7%BB%E5%8A%A8</t>
   </si>
   <si>
-    <t>中国移动</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BA%A7%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
-    <t>日产汽车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
-    <t>美国银行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%87%E4%B8%B0</t>
   </si>
   <si>
@@ -2135,99 +2090,54 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BE%97%E5%AE%9D</t>
   </si>
   <si>
-    <t>家得宝</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E6%97%97%E9%9B%86%E5%9B%A2</t>
   </si>
   <si>
-    <t>花旗集团</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%97%A8%E5%AD%90</t>
   </si>
   <si>
-    <t>西门子</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E4%B9%90%E7%A6%8F</t>
   </si>
   <si>
-    <t>家乐福</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
-    <t>现代汽车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9D%E6%B4%81</t>
   </si>
   <si>
-    <t>宝洁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%99%BE%E8%B2%A8</t>
   </si>
   <si>
-    <t>目標百貨</t>
+    <t>目标百货</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%B5%B7%E6%B4%8B%E7%9F%B3%E6%B2%B9</t>
   </si>
   <si>
-    <t>中国海洋石油</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E4%BF%9D%E9%99%A9%E9%9B%86%E5%9B%A2</t>
   </si>
   <si>
-    <t>中国人民保险集团</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%B8%BA</t>
   </si>
   <si>
-    <t>华为</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E8%BE%BE%E4%B8%B0</t>
   </si>
   <si>
-    <t>沃达丰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E6%8A%80%E6%9C%AF%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>联合技术公司</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%88%A9%E5%8D%8E</t>
   </si>
   <si>
-    <t>联合利华</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%89%B9%E5%B0%94</t>
   </si>
   <si>
-    <t>英特尔</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%89%B9%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>华特迪士尼公司</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%B0%8F</t>
   </si>
   <si>
-    <t>罗氏</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E8%8A%9D</t>
   </si>
   <si>
@@ -2237,99 +2147,51 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E5%8D%8E%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>诺华公司</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%AF%BA</t>
   </si>
   <si>
-    <t>雷诺</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/LG%E7%94%B5%E5%AD%90</t>
   </si>
   <si>
-    <t>LG电子</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%85%8B%E8%8E%B1%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
-    <t>巴克莱银行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%89%E7%91%9E</t>
   </si>
   <si>
-    <t>辉瑞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9B%E5%95%86%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
-    <t>招商银行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E6%97%A5%E8%81%94%E9%87%91%E8%9E%8D%E9%9B%86%E5%9B%A2</t>
   </si>
   <si>
-    <t>三菱日联金融集团</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%BF%AB%E9%80%92</t>
   </si>
   <si>
-    <t>联邦快递</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B4%E4%B8%9A%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
-    <t>兴业银行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E6%83%B3%E9%9B%86%E5%9B%A2</t>
   </si>
   <si>
-    <t>联想集团</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%8F%A3%E5%8F%AF%E4%B9%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>可口可乐公司</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%8D%8E%E8%83%BD%E9%9B%86%E5%9B%A2%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>中国华能集团公司</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A1%94%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
-    <t>塔塔汽车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E6%B5%A6%E4%B8%9C%E5%8F%91%E5%B1%95%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
-    <t>上海浦东发展银行</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>美国航空</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E7%BE%8E%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>达美航空</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E4%BC%A6%E8%B4%9D%E8%B0%A2%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
@@ -2339,7 +2201,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%86%B6%E9%87%91%E7%A7%91%E5%B7%A5%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>中國冶金科工集團</t>
+    <t>中国冶金科工集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E4%BF%A1%E8%B4%B7%E9%9B%86%E5%9B%A2</t>
@@ -2351,7 +2213,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E6%B0%91%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>澳洲國民銀行</t>
+    <t>澳洲国民银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E8%8B%8F%E6%B2%99%E9%92%A2%E9%9B%86%E5%9B%A2</t>
@@ -2363,13 +2225,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%90%8C%E7%85%A4%E7%A4%A6%E9%9B%86%E5%9C%98%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>大同煤礦集團公司</t>
+    <t>大同煤矿集团公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E9%81%94%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>廣達電腦</t>
+    <t>广达电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%94%B5%E5%AD%90%E4%BF%A1%E6%81%AF%E4%BA%A7%E4%B8%9A%E9%9B%86%E5%9B%A2</t>
@@ -2393,7 +2255,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A4%AA%E5%B9%B3%E6%B4%8B%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>西太平洋銀行</t>
+    <t>西太平洋银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%A5%BF%E7%84%A6%E7%85%A4</t>
@@ -2411,13 +2273,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%9B%BB%E5%8A%9B%E6%8A%95%E8%B3%87%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>中國電力投資集團</t>
+    <t>中国电力投资集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E9%9B%BB%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>中國國電集團</t>
+    <t>中国国电集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/3M%E5%85%AC%E5%8F%B8</t>
@@ -2429,13 +2291,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%B9%E8%88%B6%E5%B7%A5%E6%A5%AD%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>中國船舶工業集團</t>
+    <t>中国船舶工业集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A%E9%81%93%E6%98%8E%E9%8A%80%E8%A1%8C%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>多倫多道明銀行金融集團</t>
+    <t>多伦多道明银行金融集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BF%E6%BB%8B%E5%9B%BD%E9%99%85</t>
@@ -2453,31 +2315,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%AB%8B%E4%BF%A1</t>
   </si>
   <si>
-    <t>愛立信</t>
+    <t>爱立信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E4%B8%80%E4%B8%96%E7%B4%80%E7%A6%8F%E6%96%AF</t>
   </si>
   <si>
-    <t>二十一世紀福斯</t>
+    <t>二十一世纪福斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E7%9A%87%E5%AE%B6%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>蘇格蘭皇家銀行</t>
+    <t>苏格兰皇家银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>澳新銀行</t>
+    <t>澳新银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%8D%B7%E8%88%AA%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>法荷航集團</t>
+    <t>法荷航集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E8%BF%AA%E5%B0%94</t>
@@ -2489,13 +2351,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E6%B0%A3%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>天然氣公司</t>
+    <t>天然气公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E5%88%A9%E6%B5%A6</t>
   </si>
   <si>
-    <t>飛利浦</t>
+    <t>飞利浦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%A5%BF%E6%BD%9E%E5%AE%89%E7%9F%BF%E4%B8%9A</t>
@@ -2513,13 +2375,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E4%BA%8B%E5%BE%97</t>
   </si>
   <si>
-    <t>萬事得</t>
+    <t>万事得</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%BD%E7%85%A4%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>陽煤集團</t>
+    <t>阳煤集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%89%B9%E7%B4%A2%E7%BD%97%E7%9F%B3%E6%B2%B9%E5%85%AC%E5%8F%B8</t>
@@ -2531,7 +2393,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E8%8F%AF%E7%B4%8D</t>
   </si>
   <si>
-    <t>時代華納</t>
+    <t>时代华纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AT%26T</t>
@@ -2543,7 +2405,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E8%90%8A%E9%9B%85</t>
   </si>
   <si>
-    <t>歐萊雅</t>
+    <t>欧莱雅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%82%A6</t>
@@ -2567,7 +2429,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%89%E7%85%A4%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>晉煤集團</t>
+    <t>晋煤集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%87%E8%BE%BE%E9%9B%86%E5%9B%A2</t>
@@ -2579,13 +2441,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%9C%89%E8%89%B2%E7%A4%A6%E6%A5%AD%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>中國有色礦業集團</t>
+    <t>中国有色矿业集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B7%B4%E6%96%AF%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>金巴斯集團</t>
+    <t>金巴斯集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%A5%BF%E7%99%BE%E8%B4%A7%E5%85%AC%E5%8F%B8</t>
@@ -2597,19 +2459,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E8%A5%BF%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>關西電力</t>
+    <t>关西电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E9%9C%B8%E9%99%B8</t>
   </si>
   <si>
-    <t>速霸陸</t>
+    <t>速霸陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E5%AE%B6%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>旅行家集團</t>
+    <t>旅行家集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%E8%8E%AB%E9%87%8C%E6%96%AF%E5%9B%BD%E9%99%85</t>
@@ -2621,31 +2483,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E7%A9%97%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>瑞穗金融集團</t>
+    <t>瑞穗金融集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%AF%B6%E9%9B%BB%E8%85%A6%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>仁寶電腦工業</t>
+    <t>仁宝电脑工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%A9%8D%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>台積公司</t>
+    <t>台积公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>義大利電信</t>
+    <t>义大利电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%B4%E6%9C%A8_(%E5%85%AC%E5%8F%B8)</t>
   </si>
   <si>
-    <t>鈴木 (公司)</t>
+    <t>铃木 (公司)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E5%94%90%E9%9B%86%E5%9B%A2</t>
@@ -2669,7 +2531,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E5%A4%A9%E7%99%BE%E8%B2%A8</t>
   </si>
   <si>
-    <t>樂天百貨</t>
+    <t>乐天百货</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E8%88%AA%E5%A4%AA%E7%B3%BB%E7%BB%9F</t>
@@ -2687,19 +2549,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E9%83%B5%E6%94%BF</t>
   </si>
   <si>
-    <t>法國郵政</t>
+    <t>法国邮政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%95%B6%E5%8B%9E</t>
   </si>
   <si>
-    <t>麥當勞</t>
+    <t>麦当劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%88%AA%E7%A9%BA%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>國際航空集團</t>
+    <t>国际航空集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9A</t>
@@ -2711,43 +2573,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%88%BE%E6%96%AF%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>西爾斯控股</t>
+    <t>西尔斯控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%9D%B1%E8%83%BD%E6%BA%90%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>山東能源集團</t>
+    <t>山东能源集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8F%AF%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>新華保險</t>
+    <t>新华保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E8%B1%90%E6%A5%AD%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>加拿大豐業銀行</t>
+    <t>加拿大丰业银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LG%E9%A1%AF%E7%A4%BA</t>
   </si>
   <si>
-    <t>LG顯示</t>
+    <t>LG显示</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E8%B3%87%E6%9C%AC</t>
   </si>
   <si>
-    <t>第一資本</t>
+    <t>第一资本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E8%83%BD</t>
   </si>
   <si>
-    <t>達能</t>
+    <t>达能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BC%97%E9%9B%B7</t>
@@ -2759,7 +2621,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%88%A9%E5%BA%B7%E8%A3%BD%E8%97%A5</t>
   </si>
   <si>
-    <t>阿斯利康製藥</t>
+    <t>阿斯利康制药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Dell_EMC</t>
@@ -2777,7 +2639,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%89%E5%89%B5%E5%8A%9B</t>
   </si>
   <si>
-    <t>偉創力</t>
+    <t>伟创力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E7%A7%91%E9%9B%86%E5%9B%A2</t>
@@ -2789,7 +2651,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E4%B8%AD%E6%B2%B9</t>
   </si>
   <si>
-    <t>台灣中油</t>
+    <t>台湾中油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E6%9C%8D%E5%8A%A1%E6%B1%BD%E8%BD%A6%E5%8D%8F%E4%BC%9A</t>
@@ -2801,19 +2663,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%90%88%E4%BD%9C%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>荷蘭合作銀行</t>
+    <t>荷兰合作银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%97%A5%E6%9C%AC%E6%97%85%E5%AE%A2%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>東日本旅客鐵道</t>
+    <t>东日本旅客铁道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>中部電力</t>
+    <t>中部电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%E4%BC%AF%E9%A1%BF</t>
@@ -2825,7 +2687,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%96%AF%E6%B4%9B%E6%99%AE%C2%B7%E6%A0%BC%E6%8B%89%E6%9B%BC</t>
   </si>
   <si>
-    <t>諾斯洛普·格拉曼</t>
+    <t>诺斯洛普·格拉曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%85%B6%E6%9E%97</t>
@@ -2837,13 +2699,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E6%B0%A3</t>
   </si>
   <si>
-    <t>日本電氣</t>
+    <t>日本电气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8B%E9%82%A6%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>友邦保險</t>
+    <t>友邦保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E7%A5%9E%E5%85%AC%E5%8F%B8</t>
@@ -2867,13 +2729,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E7%B4%A1</t>
   </si>
   <si>
-    <t>印地紡</t>
+    <t>印地纺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E7%9F%B3%E6%B2%B9%E5%85%AC%E7%A4%BE</t>
   </si>
   <si>
-    <t>韓國石油公社</t>
+    <t>韩国石油公社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%BF%9C%E6%B4%8B%E6%B5%B7%E8%BF%90%E9%9B%86%E5%9B%A2</t>
@@ -2891,25 +2753,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B3%B0%E4%BA%BA%E5%A3%BD</t>
   </si>
   <si>
-    <t>國泰人壽</t>
+    <t>国泰人寿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%8B%81%E6%A5%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>美國鋁業公司</t>
+    <t>美国铝业公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%A4%96%E8%B2%BF%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>俄羅斯外貿銀行</t>
+    <t>俄罗斯外贸银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B4%99%E6%A5%AD</t>
   </si>
   <si>
-    <t>國際紙業</t>
+    <t>国际纸业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E9%BB%98%E7%94%9F%E7%94%B5%E6%B0%94%E5%85%AC%E5%8F%B8</t>
@@ -2921,13 +2783,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%9A%84%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>美的集團</t>
+    <t>美的集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>澳大利亞電信</t>
+    <t>澳大利亚电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%88%AA%E7%A9%BA%E6%B2%B9%E6%96%99</t>
@@ -2939,7 +2801,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%A4%AA%E5%B9%B3%E6%B4%8B%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>聯合太平洋鐵路</t>
+    <t>联合太平洋铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%BF%9B</t>
@@ -2957,21 +2819,18 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%8B%BC%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>首鋼集團</t>
+    <t>首钢集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E6%B4%B2%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>萬洲國際</t>
+    <t>万洲国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%81%92%E5%A4%A7%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>中國恒大集團</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E6%B3%B0%E5%8D%9A%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
@@ -2981,19 +2840,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A3%E6%89%93%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>渣打集團</t>
+    <t>渣打集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>蘋果公司</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%8B%E5%A4%8F%C2%B7%E5%93%88%E8%96%A9%E5%A8%81%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>波克夏·哈薩威公司</t>
+    <t>波克夏·哈萨威公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%9F%B3%E5%8C%96</t>
@@ -3005,7 +2861,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AC%8C%E7%94%9F</t>
   </si>
   <si>
-    <t>嬌生</t>
+    <t>娇生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF%E5%B9%B4%E5%BA%A6</t>
@@ -3017,7 +2873,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E7%9A%87%E5%AE%B6%E6%AE%BC%E7%89%8C%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>荷蘭皇家殼牌集團</t>
+    <t>荷兰皇家壳牌集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%9F%B3%E6%B2%B9%E5%A4%A9%E7%84%B6%E6%B0%94%E9%9B%86%E5%9B%A2%E5%85%AC%E5%8F%B8</t>
@@ -3035,7 +2891,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9F%B3%E6%B2%B9</t>
   </si>
   <si>
-    <t>英國石油</t>
+    <t>英国石油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BC%97%E5%85%AC%E5%8F%B8</t>
@@ -3089,7 +2945,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%8A%80%E8%A1%8C%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>中國銀行股份有限公司</t>
+    <t>中国银行股份有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%B5%B7%E6%B4%8B%E7%9F%B3%E6%B2%B9%E6%80%BB%E5%85%AC%E5%8F%B8</t>
@@ -3119,7 +2975,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%B8%AD%E9%90%B5%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>中國中鐵股份有限公司</t>
+    <t>中国中铁股份有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E5%AF%BF%E4%BF%9D%E9%99%A9%EF%BC%88%E9%9B%86%E5%9B%A2%EF%BC%89%E5%85%AC%E5%8F%B8</t>
@@ -3137,13 +2993,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E7%AD%96%E6%80%A7%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>政策性銀行</t>
+    <t>政策性银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%B9%B3%E5%AE%89%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>中國平安保險</t>
+    <t>中国平安保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%9F%B3%E6%B2%B9</t>
@@ -3155,9 +3011,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E9%93%81%E5%BB%BA</t>
   </si>
   <si>
-    <t>中国铁建</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%A3%8E%E6%B1%BD%E8%BD%A6%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
@@ -3197,19 +3050,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E4%BA%94%E7%A4%A6%E9%9B%86%E5%9C%98%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>中國五礦集團公司</t>
+    <t>中国五矿集团公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E5%8C%97%E9%8B%BC%E9%90%B5%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>河北鋼鐵集團</t>
+    <t>河北钢铁集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD%E9%8B%BC%E9%90%B5</t>
   </si>
   <si>
-    <t>首都鋼鐵</t>
+    <t>首都钢铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%AE%89%E4%BF%9D%E9%99%A9</t>
@@ -3221,7 +3074,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E6%BC%A2%E9%8B%BC%E9%90%B5%E9%9B%86%E5%9C%98%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>武漢鋼鐵集團公司</t>
+    <t>武汉钢铁集团公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E9%82%AE%E6%94%BF%E5%B1%80</t>
@@ -3239,9 +3092,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%81%94%E9%80%9A</t>
   </si>
   <si>
-    <t>中国联通</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%BF%9C%E9%9B%86%E5%9B%A2</t>
   </si>
   <si>
@@ -3257,7 +3107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%AA%E7%A9%BA%E6%B2%B9%E6%96%99%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>中國航空油料集團</t>
+    <t>中国航空油料集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%9C%BA%E6%A2%B0%E5%B7%A5%E4%B8%9A%E9%9B%86%E5%9B%A2</t>
@@ -3269,31 +3119,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E5%8D%97%E7%85%A4%E6%A5%AD%E5%8C%96%E5%B7%A5%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>河南煤業化工集團</t>
+    <t>河南煤业化工集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%B9%E8%88%B6%E9%87%8D%E5%B7%A5%E9%9B%86%E5%9C%98%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>中國船舶重工集團公司</t>
+    <t>中国船舶重工集团公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%8C%96%E5%B7%A5%E9%9B%86%E5%9C%98%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>中國化工集團公司</t>
+    <t>中国化工集团公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%99%E6%B1%9F%E7%89%A9%E7%94%A2%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>浙江物產集團</t>
+    <t>浙江物产集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>華人</t>
+    <t>华人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%B8%AD%E4%BF%A1%E9%9B%86%E5%9B%A2%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -3305,7 +3155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%9B%8A%E5%9C%8B%E9%9A%9B%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>豐益國際有限公司</t>
+    <t>丰益国际有限公司</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Central_Region,_Singapore</t>
@@ -3317,13 +3167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>港島</t>
+    <t>港岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%B9%B3%E5%AE%89%E4%BF%9D%E9%9A%AA%EF%BC%88%E9%9B%86%E5%9B%A2%EF%BC%89%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>中國平安保險（集团）股份有限公司</t>
+    <t>中国平安保险（集团）股份有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%9C%B3</t>
@@ -3341,7 +3191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>金屬</t>
+    <t>金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A1%E5%92%8C%E9%9B%86%E5%9B%A2%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -3359,7 +3209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%83%E5%9C%92%E5%B8%82</t>
   </si>
   <si>
-    <t>桃園市</t>
+    <t>桃园市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E9%93%9D%E4%B8%9A%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -3371,19 +3221,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E6%BC%A2</t>
   </si>
   <si>
-    <t>武漢</t>
+    <t>武汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E9%8A%80%E8%A1%8C%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>交通銀行股份有限公司</t>
+    <t>交通银行股份有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%80%E4%B8%AD%E8%83%BD%E6%BA%90%E9%9B%86%E5%9C%98%E6%9C%89%E9%99%90%E8%B2%AC%E4%BB%BB%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>冀中能源集團有限責任公司</t>
+    <t>冀中能源集团有限责任公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A2%E5%8F%B0</t>
@@ -3395,19 +3245,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E4%B8%AD%E6%B2%B9%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>台灣中油股份有限公司</t>
+    <t>台湾中油股份有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>臺北</t>
+    <t>台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E9%9B%BB%E9%9B%86%E5%9C%98%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>中國國電集團公司</t>
+    <t>中国国电集团公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E9%93%81%E8%B7%AF%E7%89%A9%E8%B5%84%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -3419,13 +3269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%82%BA%E6%8A%95%E8%B3%87%E6%8E%A7%E8%82%A1%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>華為投資控股有限公司</t>
+    <t>华为投资控股有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E8%A8%98%E9%BB%83%E5%9F%94%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>和記黃埔有限公司</t>
+    <t>和记黄埔有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A0%E5%AE%B6%E6%B8%AF</t>
@@ -3443,15 +3293,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E6%83%B3%E9%9B%86%E5%9C%98%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>聯想集團有限公司</t>
+    <t>联想集团有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%81%A0%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>中遠集團</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%94%B5%E5%8A%9B%E5%BB%BA%E8%AE%BE%E9%9B%86%E5%9B%A2%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
@@ -3461,13 +3308,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E5%8D%97%E7%85%A4%E6%A5%AD%E5%8C%96%E5%B7%A5%E9%9B%86%E5%9C%98%E6%9C%89%E9%99%90%E8%B2%AC%E4%BB%BB%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>河南煤業化工集團有限責任公司</t>
+    <t>河南煤业化工集团有限责任公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>鄭州</t>
+    <t>郑州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%A1%91%E7%9F%B3%E5%8C%96%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -3479,7 +3326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E6%9E%97%E7%B8%A3</t>
   </si>
   <si>
-    <t>雲林縣</t>
+    <t>云林县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E5%B8%82%E7%89%A9%E8%B5%84%E9%9B%86%E5%9B%A2%E6%80%BB%E5%85%AC%E5%8F%B8</t>
@@ -3497,7 +3344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%99%E6%B1%9F%E7%89%A9%E7%94%A2%E9%9B%86%E5%9C%98%E6%9C%89%E9%99%90%E8%B2%AC%E4%BB%BB%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>浙江物產集團有限責任公司</t>
+    <t>浙江物产集团有限责任公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%AD%E5%B7%9E</t>
@@ -3509,19 +3356,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%8F%AF%E9%9B%BB%E9%9B%86%E5%9C%98%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>中國華電集團公司</t>
+    <t>中国华电集团公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%9D%B1%E9%AD%8F%E6%A9%8B%E5%89%B5%E6%A5%AD%E9%9B%86%E5%9C%98%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>山東魏橋創業集團有限公司</t>
+    <t>山东魏桥创业集团有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%B1%E5%B7%9E</t>
   </si>
   <si>
-    <t>濱州</t>
+    <t>滨州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%A5%BF%E7%85%A4%E7%82%AD%E8%BF%90%E9%94%80%E9%9B%86%E5%9B%A2%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -3539,25 +3386,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E4%BF%9D%E9%9A%AA%EF%BC%88%E9%9B%86%E5%9B%A2%EF%BC%89%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>中國太平洋保險（集团）股份有限公司</t>
+    <t>中国太平洋保险（集团）股份有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%9B%BB%E5%8A%9B%E6%8A%95%E8%B3%87%E9%9B%86%E5%9C%98%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>中國電力投資集團公司</t>
+    <t>中国电力投资集团公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%9D%B1%E8%83%BD%E6%BA%90%E9%9B%86%E5%9C%98%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>山東能源集團有限公司</t>
+    <t>山东能源集团有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%9F%E5%8D%97</t>
   </si>
   <si>
-    <t>濟南</t>
+    <t>济南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9E%8D%E9%92%A2%E9%9B%86%E5%9B%A2%E5%85%AC%E5%8F%B8</t>
@@ -3575,7 +3422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%AF%B6%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>仁寶電腦</t>
+    <t>仁宝电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%99%E6%B1%9F%E5%90%89%E5%88%A9%E6%8E%A7%E8%82%A1%E9%9B%86%E5%9B%A2</t>
@@ -3623,13 +3470,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%A8%88%E6%BA%96%E5%89%87</t>
   </si>
   <si>
-    <t>國際會計準則</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%832000%E5%A4%A7%E4%B8%8A%E5%B8%82%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>全球2000大上市企業</t>
+    <t>全球2000大上市企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF</t>
@@ -3641,13 +3485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%99%BE%E5%A4%A7%E5%90%8D%E4%BA%BA%E6%AC%8A%E5%8A%9B%E6%A6%9C</t>
   </si>
   <si>
-    <t>世界百大名人權力榜</t>
+    <t>世界百大名人权力榜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF%E4%B8%AD%E5%9C%8B%E5%90%8D%E4%BA%BA%E6%A6%9C</t>
   </si>
   <si>
-    <t>福布斯中國名人榜</t>
+    <t>福布斯中国名人榜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E7%A6%8F%E5%B8%83%E6%96%AF%E5%90%8D%E4%BA%BA%E6%A6%9C</t>
@@ -13842,7 +13686,7 @@
         <v>671</v>
       </c>
       <c r="F338" t="s">
-        <v>672</v>
+        <v>20</v>
       </c>
       <c r="G338" t="n">
         <v>3</v>
@@ -13868,10 +13712,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F339" t="s">
-        <v>674</v>
+        <v>40</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13897,10 +13741,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F340" t="s">
-        <v>676</v>
+        <v>44</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -13926,10 +13770,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F341" t="s">
-        <v>678</v>
+        <v>54</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13984,10 +13828,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F343" t="s">
-        <v>680</v>
+        <v>56</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -14013,10 +13857,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F344" t="s">
-        <v>682</v>
+        <v>80</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -14042,10 +13886,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F345" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -14071,10 +13915,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F346" t="s">
-        <v>686</v>
+        <v>82</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -14100,10 +13944,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F347" t="s">
-        <v>688</v>
+        <v>94</v>
       </c>
       <c r="G347" t="n">
         <v>3</v>
@@ -14129,10 +13973,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F348" t="s">
-        <v>690</v>
+        <v>106</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -14245,10 +14089,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="F352" t="s">
-        <v>692</v>
+        <v>96</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -14274,10 +14118,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F353" t="s">
-        <v>694</v>
+        <v>228</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14303,10 +14147,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="F354" t="s">
-        <v>696</v>
+        <v>70</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14332,10 +14176,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="F355" t="s">
-        <v>698</v>
+        <v>110</v>
       </c>
       <c r="G355" t="n">
         <v>3</v>
@@ -14361,10 +14205,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="F356" t="s">
-        <v>700</v>
+        <v>104</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14419,10 +14263,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="F358" t="s">
-        <v>702</v>
+        <v>136</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14448,10 +14292,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="F359" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14477,10 +14321,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="F360" t="s">
-        <v>706</v>
+        <v>130</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14506,10 +14350,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="F361" t="s">
-        <v>708</v>
+        <v>162</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14535,10 +14379,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="F362" t="s">
-        <v>710</v>
+        <v>146</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14593,10 +14437,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="F364" t="s">
-        <v>712</v>
+        <v>148</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14738,10 +14582,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>713</v>
+        <v>694</v>
       </c>
       <c r="F369" t="s">
-        <v>714</v>
+        <v>172</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14767,10 +14611,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="F370" t="s">
-        <v>716</v>
+        <v>208</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14854,10 +14698,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="F373" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -15028,10 +14872,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="F379" t="s">
-        <v>720</v>
+        <v>244</v>
       </c>
       <c r="G379" t="n">
         <v>3</v>
@@ -15202,10 +15046,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
       <c r="F385" t="s">
-        <v>722</v>
+        <v>242</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15347,10 +15191,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="F390" t="s">
-        <v>724</v>
+        <v>184</v>
       </c>
       <c r="G390" t="n">
         <v>2</v>
@@ -15434,10 +15278,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>725</v>
+        <v>701</v>
       </c>
       <c r="F393" t="s">
-        <v>726</v>
+        <v>306</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15521,10 +15365,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>727</v>
+        <v>702</v>
       </c>
       <c r="F396" t="s">
-        <v>728</v>
+        <v>318</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15666,10 +15510,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>729</v>
+        <v>703</v>
       </c>
       <c r="F401" t="s">
-        <v>730</v>
+        <v>308</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15753,10 +15597,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>731</v>
+        <v>704</v>
       </c>
       <c r="F404" t="s">
-        <v>732</v>
+        <v>298</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15782,10 +15626,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
       <c r="F405" t="s">
-        <v>734</v>
+        <v>332</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15811,10 +15655,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>735</v>
+        <v>706</v>
       </c>
       <c r="F406" t="s">
-        <v>736</v>
+        <v>350</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15840,10 +15684,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>737</v>
+        <v>707</v>
       </c>
       <c r="F407" t="s">
-        <v>738</v>
+        <v>708</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15956,10 +15800,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>739</v>
+        <v>709</v>
       </c>
       <c r="F411" t="s">
-        <v>740</v>
+        <v>380</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -16014,10 +15858,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>741</v>
+        <v>710</v>
       </c>
       <c r="F413" t="s">
-        <v>742</v>
+        <v>324</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -16043,10 +15887,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>743</v>
+        <v>711</v>
       </c>
       <c r="F414" t="s">
-        <v>744</v>
+        <v>408</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -16072,10 +15916,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="F415" t="s">
-        <v>746</v>
+        <v>558</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -16130,10 +15974,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>747</v>
+        <v>713</v>
       </c>
       <c r="F417" t="s">
-        <v>748</v>
+        <v>358</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16188,10 +16032,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>749</v>
+        <v>714</v>
       </c>
       <c r="F419" t="s">
-        <v>750</v>
+        <v>440</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16217,10 +16061,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>751</v>
+        <v>715</v>
       </c>
       <c r="F420" t="s">
-        <v>752</v>
+        <v>340</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -16246,10 +16090,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>753</v>
+        <v>716</v>
       </c>
       <c r="F421" t="s">
-        <v>754</v>
+        <v>368</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -16304,10 +16148,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>755</v>
+        <v>717</v>
       </c>
       <c r="F423" t="s">
-        <v>756</v>
+        <v>464</v>
       </c>
       <c r="G423" t="n">
         <v>2</v>
@@ -16449,10 +16293,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>757</v>
+        <v>718</v>
       </c>
       <c r="F428" t="s">
-        <v>758</v>
+        <v>460</v>
       </c>
       <c r="G428" t="n">
         <v>2</v>
@@ -16507,10 +16351,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>759</v>
+        <v>719</v>
       </c>
       <c r="F430" t="s">
-        <v>760</v>
+        <v>476</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16565,10 +16409,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>761</v>
+        <v>720</v>
       </c>
       <c r="F432" t="s">
-        <v>762</v>
+        <v>542</v>
       </c>
       <c r="G432" t="n">
         <v>3</v>
@@ -16681,10 +16525,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>763</v>
+        <v>721</v>
       </c>
       <c r="F436" t="s">
-        <v>764</v>
+        <v>496</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16710,10 +16554,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>765</v>
+        <v>722</v>
       </c>
       <c r="F437" t="s">
-        <v>766</v>
+        <v>492</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16826,10 +16670,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>767</v>
+        <v>723</v>
       </c>
       <c r="F441" t="s">
-        <v>768</v>
+        <v>510</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16884,10 +16728,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>769</v>
+        <v>724</v>
       </c>
       <c r="F443" t="s">
-        <v>770</v>
+        <v>514</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16913,10 +16757,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>771</v>
+        <v>725</v>
       </c>
       <c r="F444" t="s">
-        <v>772</v>
+        <v>726</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16942,10 +16786,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>773</v>
+        <v>727</v>
       </c>
       <c r="F445" t="s">
-        <v>774</v>
+        <v>728</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16971,10 +16815,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>775</v>
+        <v>729</v>
       </c>
       <c r="F446" t="s">
-        <v>776</v>
+        <v>730</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -17000,10 +16844,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>777</v>
+        <v>731</v>
       </c>
       <c r="F447" t="s">
-        <v>778</v>
+        <v>732</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -17029,10 +16873,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>779</v>
+        <v>733</v>
       </c>
       <c r="F448" t="s">
-        <v>780</v>
+        <v>734</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -17058,10 +16902,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>781</v>
+        <v>735</v>
       </c>
       <c r="F449" t="s">
-        <v>782</v>
+        <v>736</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -17087,10 +16931,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>783</v>
+        <v>737</v>
       </c>
       <c r="F450" t="s">
-        <v>784</v>
+        <v>738</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -17116,10 +16960,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>785</v>
+        <v>739</v>
       </c>
       <c r="F451" t="s">
-        <v>786</v>
+        <v>740</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17145,10 +16989,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>787</v>
+        <v>741</v>
       </c>
       <c r="F452" t="s">
-        <v>788</v>
+        <v>742</v>
       </c>
       <c r="G452" t="n">
         <v>2</v>
@@ -17174,10 +17018,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>789</v>
+        <v>743</v>
       </c>
       <c r="F453" t="s">
-        <v>790</v>
+        <v>744</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17203,10 +17047,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>791</v>
+        <v>745</v>
       </c>
       <c r="F454" t="s">
-        <v>792</v>
+        <v>746</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17232,10 +17076,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>793</v>
+        <v>747</v>
       </c>
       <c r="F455" t="s">
-        <v>794</v>
+        <v>748</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -17261,10 +17105,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="F456" t="s">
-        <v>796</v>
+        <v>750</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17290,10 +17134,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>797</v>
+        <v>751</v>
       </c>
       <c r="F457" t="s">
-        <v>798</v>
+        <v>752</v>
       </c>
       <c r="G457" t="n">
         <v>2</v>
@@ -17319,10 +17163,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>799</v>
+        <v>753</v>
       </c>
       <c r="F458" t="s">
-        <v>800</v>
+        <v>754</v>
       </c>
       <c r="G458" t="n">
         <v>2</v>
@@ -17348,10 +17192,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>801</v>
+        <v>755</v>
       </c>
       <c r="F459" t="s">
-        <v>802</v>
+        <v>756</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17377,10 +17221,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>803</v>
+        <v>757</v>
       </c>
       <c r="F460" t="s">
-        <v>804</v>
+        <v>758</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17406,10 +17250,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>805</v>
+        <v>759</v>
       </c>
       <c r="F461" t="s">
-        <v>806</v>
+        <v>760</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17435,10 +17279,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>807</v>
+        <v>761</v>
       </c>
       <c r="F462" t="s">
-        <v>808</v>
+        <v>762</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17464,10 +17308,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>809</v>
+        <v>763</v>
       </c>
       <c r="F463" t="s">
-        <v>810</v>
+        <v>764</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17493,10 +17337,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>811</v>
+        <v>765</v>
       </c>
       <c r="F464" t="s">
-        <v>812</v>
+        <v>766</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17522,10 +17366,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>813</v>
+        <v>767</v>
       </c>
       <c r="F465" t="s">
-        <v>814</v>
+        <v>768</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17551,10 +17395,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>815</v>
+        <v>769</v>
       </c>
       <c r="F466" t="s">
-        <v>816</v>
+        <v>770</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17580,10 +17424,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>817</v>
+        <v>771</v>
       </c>
       <c r="F467" t="s">
-        <v>818</v>
+        <v>772</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17609,10 +17453,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>819</v>
+        <v>773</v>
       </c>
       <c r="F468" t="s">
-        <v>820</v>
+        <v>774</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17638,10 +17482,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>821</v>
+        <v>775</v>
       </c>
       <c r="F469" t="s">
-        <v>822</v>
+        <v>776</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17667,10 +17511,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>823</v>
+        <v>777</v>
       </c>
       <c r="F470" t="s">
-        <v>824</v>
+        <v>778</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17696,10 +17540,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>825</v>
+        <v>779</v>
       </c>
       <c r="F471" t="s">
-        <v>826</v>
+        <v>780</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17725,10 +17569,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>827</v>
+        <v>781</v>
       </c>
       <c r="F472" t="s">
-        <v>828</v>
+        <v>782</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17754,10 +17598,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>829</v>
+        <v>783</v>
       </c>
       <c r="F473" t="s">
-        <v>830</v>
+        <v>784</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17783,10 +17627,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>831</v>
+        <v>785</v>
       </c>
       <c r="F474" t="s">
-        <v>832</v>
+        <v>786</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17812,10 +17656,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>833</v>
+        <v>787</v>
       </c>
       <c r="F475" t="s">
-        <v>834</v>
+        <v>788</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17841,10 +17685,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>835</v>
+        <v>789</v>
       </c>
       <c r="F476" t="s">
-        <v>836</v>
+        <v>790</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17870,10 +17714,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>837</v>
+        <v>791</v>
       </c>
       <c r="F477" t="s">
-        <v>838</v>
+        <v>792</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17899,10 +17743,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>839</v>
+        <v>793</v>
       </c>
       <c r="F478" t="s">
-        <v>840</v>
+        <v>794</v>
       </c>
       <c r="G478" t="n">
         <v>3</v>
@@ -17928,10 +17772,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>841</v>
+        <v>795</v>
       </c>
       <c r="F479" t="s">
-        <v>842</v>
+        <v>796</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17957,10 +17801,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>843</v>
+        <v>797</v>
       </c>
       <c r="F480" t="s">
-        <v>844</v>
+        <v>798</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17986,10 +17830,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>845</v>
+        <v>799</v>
       </c>
       <c r="F481" t="s">
-        <v>846</v>
+        <v>800</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -18015,10 +17859,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>847</v>
+        <v>801</v>
       </c>
       <c r="F482" t="s">
-        <v>848</v>
+        <v>802</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -18044,10 +17888,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>849</v>
+        <v>803</v>
       </c>
       <c r="F483" t="s">
-        <v>850</v>
+        <v>804</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -18073,10 +17917,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>851</v>
+        <v>805</v>
       </c>
       <c r="F484" t="s">
-        <v>852</v>
+        <v>806</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18102,10 +17946,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>853</v>
+        <v>807</v>
       </c>
       <c r="F485" t="s">
-        <v>854</v>
+        <v>808</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18131,10 +17975,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>855</v>
+        <v>809</v>
       </c>
       <c r="F486" t="s">
-        <v>856</v>
+        <v>810</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18160,10 +18004,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>857</v>
+        <v>811</v>
       </c>
       <c r="F487" t="s">
-        <v>858</v>
+        <v>812</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -18189,10 +18033,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>859</v>
+        <v>813</v>
       </c>
       <c r="F488" t="s">
-        <v>860</v>
+        <v>814</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18218,10 +18062,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>861</v>
+        <v>815</v>
       </c>
       <c r="F489" t="s">
-        <v>862</v>
+        <v>816</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18247,10 +18091,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>863</v>
+        <v>817</v>
       </c>
       <c r="F490" t="s">
-        <v>864</v>
+        <v>818</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -18276,10 +18120,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>865</v>
+        <v>819</v>
       </c>
       <c r="F491" t="s">
-        <v>866</v>
+        <v>820</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18305,10 +18149,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>867</v>
+        <v>821</v>
       </c>
       <c r="F492" t="s">
-        <v>868</v>
+        <v>822</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18334,10 +18178,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>869</v>
+        <v>823</v>
       </c>
       <c r="F493" t="s">
-        <v>870</v>
+        <v>824</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18363,10 +18207,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>871</v>
+        <v>825</v>
       </c>
       <c r="F494" t="s">
-        <v>872</v>
+        <v>826</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18392,10 +18236,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>873</v>
+        <v>827</v>
       </c>
       <c r="F495" t="s">
-        <v>874</v>
+        <v>828</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18421,10 +18265,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>875</v>
+        <v>829</v>
       </c>
       <c r="F496" t="s">
-        <v>876</v>
+        <v>830</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18450,10 +18294,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>877</v>
+        <v>831</v>
       </c>
       <c r="F497" t="s">
-        <v>878</v>
+        <v>832</v>
       </c>
       <c r="G497" t="n">
         <v>2</v>
@@ -18479,10 +18323,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>879</v>
+        <v>833</v>
       </c>
       <c r="F498" t="s">
-        <v>880</v>
+        <v>834</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18508,10 +18352,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>881</v>
+        <v>835</v>
       </c>
       <c r="F499" t="s">
-        <v>882</v>
+        <v>836</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18537,10 +18381,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>883</v>
+        <v>837</v>
       </c>
       <c r="F500" t="s">
-        <v>884</v>
+        <v>838</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18566,10 +18410,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>885</v>
+        <v>839</v>
       </c>
       <c r="F501" t="s">
-        <v>886</v>
+        <v>840</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18595,10 +18439,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>887</v>
+        <v>841</v>
       </c>
       <c r="F502" t="s">
-        <v>888</v>
+        <v>842</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18624,10 +18468,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>889</v>
+        <v>843</v>
       </c>
       <c r="F503" t="s">
-        <v>890</v>
+        <v>844</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18653,10 +18497,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>891</v>
+        <v>845</v>
       </c>
       <c r="F504" t="s">
-        <v>892</v>
+        <v>846</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18682,10 +18526,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>893</v>
+        <v>847</v>
       </c>
       <c r="F505" t="s">
-        <v>894</v>
+        <v>848</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18711,10 +18555,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>895</v>
+        <v>849</v>
       </c>
       <c r="F506" t="s">
-        <v>896</v>
+        <v>850</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18740,10 +18584,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>897</v>
+        <v>851</v>
       </c>
       <c r="F507" t="s">
-        <v>898</v>
+        <v>852</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18769,10 +18613,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>899</v>
+        <v>853</v>
       </c>
       <c r="F508" t="s">
-        <v>900</v>
+        <v>854</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18798,10 +18642,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>901</v>
+        <v>855</v>
       </c>
       <c r="F509" t="s">
-        <v>902</v>
+        <v>856</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18827,10 +18671,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>903</v>
+        <v>857</v>
       </c>
       <c r="F510" t="s">
-        <v>904</v>
+        <v>858</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18856,10 +18700,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>905</v>
+        <v>859</v>
       </c>
       <c r="F511" t="s">
-        <v>906</v>
+        <v>860</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18885,10 +18729,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>907</v>
+        <v>861</v>
       </c>
       <c r="F512" t="s">
-        <v>908</v>
+        <v>862</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18914,10 +18758,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>909</v>
+        <v>863</v>
       </c>
       <c r="F513" t="s">
-        <v>910</v>
+        <v>864</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18943,10 +18787,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>911</v>
+        <v>865</v>
       </c>
       <c r="F514" t="s">
-        <v>912</v>
+        <v>866</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18972,10 +18816,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>913</v>
+        <v>867</v>
       </c>
       <c r="F515" t="s">
-        <v>914</v>
+        <v>868</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -19001,10 +18845,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>915</v>
+        <v>869</v>
       </c>
       <c r="F516" t="s">
-        <v>916</v>
+        <v>870</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -19030,10 +18874,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>917</v>
+        <v>871</v>
       </c>
       <c r="F517" t="s">
-        <v>918</v>
+        <v>872</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -19059,10 +18903,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>919</v>
+        <v>873</v>
       </c>
       <c r="F518" t="s">
-        <v>920</v>
+        <v>874</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -19088,10 +18932,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>921</v>
+        <v>875</v>
       </c>
       <c r="F519" t="s">
-        <v>922</v>
+        <v>876</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -19117,10 +18961,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>923</v>
+        <v>877</v>
       </c>
       <c r="F520" t="s">
-        <v>924</v>
+        <v>878</v>
       </c>
       <c r="G520" t="n">
         <v>2</v>
@@ -19146,10 +18990,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>925</v>
+        <v>879</v>
       </c>
       <c r="F521" t="s">
-        <v>926</v>
+        <v>880</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19175,10 +19019,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>927</v>
+        <v>881</v>
       </c>
       <c r="F522" t="s">
-        <v>928</v>
+        <v>882</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19204,10 +19048,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>929</v>
+        <v>883</v>
       </c>
       <c r="F523" t="s">
-        <v>930</v>
+        <v>884</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19233,10 +19077,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>931</v>
+        <v>885</v>
       </c>
       <c r="F524" t="s">
-        <v>932</v>
+        <v>886</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19262,10 +19106,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>933</v>
+        <v>887</v>
       </c>
       <c r="F525" t="s">
-        <v>934</v>
+        <v>888</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19291,10 +19135,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>935</v>
+        <v>889</v>
       </c>
       <c r="F526" t="s">
-        <v>936</v>
+        <v>890</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19320,10 +19164,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>937</v>
+        <v>891</v>
       </c>
       <c r="F527" t="s">
-        <v>938</v>
+        <v>892</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19349,10 +19193,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>939</v>
+        <v>893</v>
       </c>
       <c r="F528" t="s">
-        <v>940</v>
+        <v>894</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19378,10 +19222,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>941</v>
+        <v>895</v>
       </c>
       <c r="F529" t="s">
-        <v>942</v>
+        <v>896</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19407,10 +19251,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>943</v>
+        <v>897</v>
       </c>
       <c r="F530" t="s">
-        <v>944</v>
+        <v>898</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19436,10 +19280,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>945</v>
+        <v>899</v>
       </c>
       <c r="F531" t="s">
-        <v>946</v>
+        <v>900</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19465,10 +19309,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>947</v>
+        <v>901</v>
       </c>
       <c r="F532" t="s">
-        <v>948</v>
+        <v>902</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19494,10 +19338,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>949</v>
+        <v>903</v>
       </c>
       <c r="F533" t="s">
-        <v>950</v>
+        <v>904</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -19523,10 +19367,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>951</v>
+        <v>905</v>
       </c>
       <c r="F534" t="s">
-        <v>952</v>
+        <v>906</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19552,10 +19396,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>953</v>
+        <v>907</v>
       </c>
       <c r="F535" t="s">
-        <v>954</v>
+        <v>908</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19581,10 +19425,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>955</v>
+        <v>909</v>
       </c>
       <c r="F536" t="s">
-        <v>956</v>
+        <v>910</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19610,10 +19454,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>957</v>
+        <v>911</v>
       </c>
       <c r="F537" t="s">
-        <v>958</v>
+        <v>912</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19639,10 +19483,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>959</v>
+        <v>913</v>
       </c>
       <c r="F538" t="s">
-        <v>960</v>
+        <v>914</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19668,10 +19512,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>961</v>
+        <v>915</v>
       </c>
       <c r="F539" t="s">
-        <v>962</v>
+        <v>916</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19697,10 +19541,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>963</v>
+        <v>917</v>
       </c>
       <c r="F540" t="s">
-        <v>964</v>
+        <v>918</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19726,10 +19570,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>965</v>
+        <v>919</v>
       </c>
       <c r="F541" t="s">
-        <v>966</v>
+        <v>920</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19755,10 +19599,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>967</v>
+        <v>921</v>
       </c>
       <c r="F542" t="s">
-        <v>968</v>
+        <v>922</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19784,10 +19628,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>969</v>
+        <v>923</v>
       </c>
       <c r="F543" t="s">
-        <v>970</v>
+        <v>924</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19813,10 +19657,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>971</v>
+        <v>925</v>
       </c>
       <c r="F544" t="s">
-        <v>972</v>
+        <v>926</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19842,10 +19686,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>973</v>
+        <v>927</v>
       </c>
       <c r="F545" t="s">
-        <v>974</v>
+        <v>928</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19871,10 +19715,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>975</v>
+        <v>929</v>
       </c>
       <c r="F546" t="s">
-        <v>976</v>
+        <v>930</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19900,10 +19744,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>977</v>
+        <v>931</v>
       </c>
       <c r="F547" t="s">
-        <v>978</v>
+        <v>932</v>
       </c>
       <c r="G547" t="n">
         <v>2</v>
@@ -19929,10 +19773,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>979</v>
+        <v>933</v>
       </c>
       <c r="F548" t="s">
-        <v>980</v>
+        <v>934</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19958,10 +19802,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>981</v>
+        <v>935</v>
       </c>
       <c r="F549" t="s">
-        <v>982</v>
+        <v>936</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19987,10 +19831,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>983</v>
+        <v>937</v>
       </c>
       <c r="F550" t="s">
-        <v>984</v>
+        <v>646</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -20016,10 +19860,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>985</v>
+        <v>938</v>
       </c>
       <c r="F551" t="s">
-        <v>986</v>
+        <v>939</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -20045,10 +19889,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>987</v>
+        <v>940</v>
       </c>
       <c r="F552" t="s">
-        <v>988</v>
+        <v>941</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -20074,10 +19918,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>989</v>
+        <v>942</v>
       </c>
       <c r="F553" t="s">
-        <v>990</v>
+        <v>36</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20103,10 +19947,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>991</v>
+        <v>943</v>
       </c>
       <c r="F554" t="s">
-        <v>992</v>
+        <v>944</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -20132,10 +19976,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>993</v>
+        <v>945</v>
       </c>
       <c r="F555" t="s">
-        <v>994</v>
+        <v>946</v>
       </c>
       <c r="G555" t="n">
         <v>3</v>
@@ -20161,10 +20005,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>995</v>
+        <v>947</v>
       </c>
       <c r="F556" t="s">
-        <v>996</v>
+        <v>948</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20190,10 +20034,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>997</v>
+        <v>949</v>
       </c>
       <c r="F557" t="s">
-        <v>998</v>
+        <v>950</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20219,10 +20063,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>999</v>
+        <v>951</v>
       </c>
       <c r="F558" t="s">
-        <v>1000</v>
+        <v>952</v>
       </c>
       <c r="G558" t="n">
         <v>3</v>
@@ -20248,10 +20092,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1001</v>
+        <v>953</v>
       </c>
       <c r="F559" t="s">
-        <v>1002</v>
+        <v>954</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -20277,10 +20121,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1003</v>
+        <v>955</v>
       </c>
       <c r="F560" t="s">
-        <v>1004</v>
+        <v>956</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -20306,10 +20150,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1005</v>
+        <v>957</v>
       </c>
       <c r="F561" t="s">
-        <v>1006</v>
+        <v>958</v>
       </c>
       <c r="G561" t="n">
         <v>2</v>
@@ -20335,10 +20179,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1007</v>
+        <v>959</v>
       </c>
       <c r="F562" t="s">
-        <v>1008</v>
+        <v>960</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20364,10 +20208,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1009</v>
+        <v>961</v>
       </c>
       <c r="F563" t="s">
-        <v>1010</v>
+        <v>962</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20393,10 +20237,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1011</v>
+        <v>963</v>
       </c>
       <c r="F564" t="s">
-        <v>1012</v>
+        <v>964</v>
       </c>
       <c r="G564" t="n">
         <v>21</v>
@@ -20422,10 +20266,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1013</v>
+        <v>965</v>
       </c>
       <c r="F565" t="s">
-        <v>1014</v>
+        <v>966</v>
       </c>
       <c r="G565" t="n">
         <v>3</v>
@@ -20451,10 +20295,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1015</v>
+        <v>967</v>
       </c>
       <c r="F566" t="s">
-        <v>1016</v>
+        <v>968</v>
       </c>
       <c r="G566" t="n">
         <v>46</v>
@@ -20480,10 +20324,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1001</v>
+        <v>953</v>
       </c>
       <c r="F567" t="s">
-        <v>1002</v>
+        <v>954</v>
       </c>
       <c r="G567" t="n">
         <v>2</v>
@@ -20509,10 +20353,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1017</v>
+        <v>969</v>
       </c>
       <c r="F568" t="s">
-        <v>1018</v>
+        <v>970</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20538,10 +20382,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1019</v>
+        <v>971</v>
       </c>
       <c r="F569" t="s">
-        <v>1020</v>
+        <v>972</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20567,10 +20411,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1021</v>
+        <v>973</v>
       </c>
       <c r="F570" t="s">
-        <v>1022</v>
+        <v>974</v>
       </c>
       <c r="G570" t="n">
         <v>2</v>
@@ -20596,10 +20440,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1023</v>
+        <v>975</v>
       </c>
       <c r="F571" t="s">
-        <v>1024</v>
+        <v>976</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20625,10 +20469,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1025</v>
+        <v>977</v>
       </c>
       <c r="F572" t="s">
-        <v>1026</v>
+        <v>978</v>
       </c>
       <c r="G572" t="n">
         <v>2</v>
@@ -20654,10 +20498,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1027</v>
+        <v>979</v>
       </c>
       <c r="F573" t="s">
-        <v>1028</v>
+        <v>980</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20683,10 +20527,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1029</v>
+        <v>981</v>
       </c>
       <c r="F574" t="s">
-        <v>1030</v>
+        <v>982</v>
       </c>
       <c r="G574" t="n">
         <v>2</v>
@@ -20712,10 +20556,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1031</v>
+        <v>983</v>
       </c>
       <c r="F575" t="s">
-        <v>1032</v>
+        <v>984</v>
       </c>
       <c r="G575" t="n">
         <v>10</v>
@@ -20741,10 +20585,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1033</v>
+        <v>985</v>
       </c>
       <c r="F576" t="s">
-        <v>1034</v>
+        <v>986</v>
       </c>
       <c r="G576" t="n">
         <v>2</v>
@@ -20770,10 +20614,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1035</v>
+        <v>987</v>
       </c>
       <c r="F577" t="s">
-        <v>1036</v>
+        <v>988</v>
       </c>
       <c r="G577" t="n">
         <v>2</v>
@@ -20799,10 +20643,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1037</v>
+        <v>989</v>
       </c>
       <c r="F578" t="s">
-        <v>1038</v>
+        <v>990</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20828,10 +20672,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1039</v>
+        <v>991</v>
       </c>
       <c r="F579" t="s">
-        <v>1040</v>
+        <v>992</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20857,10 +20701,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1041</v>
+        <v>993</v>
       </c>
       <c r="F580" t="s">
-        <v>1042</v>
+        <v>994</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20886,10 +20730,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1043</v>
+        <v>995</v>
       </c>
       <c r="F581" t="s">
-        <v>1044</v>
+        <v>996</v>
       </c>
       <c r="G581" t="n">
         <v>9</v>
@@ -20915,10 +20759,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>855</v>
+        <v>809</v>
       </c>
       <c r="F582" t="s">
-        <v>856</v>
+        <v>810</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20944,10 +20788,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1045</v>
+        <v>997</v>
       </c>
       <c r="F583" t="s">
-        <v>1046</v>
+        <v>128</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20973,10 +20817,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1047</v>
+        <v>998</v>
       </c>
       <c r="F584" t="s">
-        <v>1048</v>
+        <v>999</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -21060,10 +20904,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1049</v>
+        <v>1000</v>
       </c>
       <c r="F587" t="s">
-        <v>1050</v>
+        <v>1001</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -21089,10 +20933,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1051</v>
+        <v>1002</v>
       </c>
       <c r="F588" t="s">
-        <v>1052</v>
+        <v>1003</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21176,10 +21020,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1053</v>
+        <v>1004</v>
       </c>
       <c r="F591" t="s">
-        <v>1054</v>
+        <v>1005</v>
       </c>
       <c r="G591" t="n">
         <v>3</v>
@@ -21205,10 +21049,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1055</v>
+        <v>1006</v>
       </c>
       <c r="F592" t="s">
-        <v>1056</v>
+        <v>1007</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21234,10 +21078,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1057</v>
+        <v>1008</v>
       </c>
       <c r="F593" t="s">
-        <v>1058</v>
+        <v>1009</v>
       </c>
       <c r="G593" t="n">
         <v>2</v>
@@ -21292,10 +21136,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1059</v>
+        <v>1010</v>
       </c>
       <c r="F595" t="s">
-        <v>1060</v>
+        <v>1011</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21350,10 +21194,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1061</v>
+        <v>1012</v>
       </c>
       <c r="F597" t="s">
-        <v>1062</v>
+        <v>1013</v>
       </c>
       <c r="G597" t="n">
         <v>2</v>
@@ -21379,10 +21223,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
       <c r="F598" t="s">
-        <v>722</v>
+        <v>242</v>
       </c>
       <c r="G598" t="n">
         <v>2</v>
@@ -21437,10 +21281,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>773</v>
+        <v>727</v>
       </c>
       <c r="F600" t="s">
-        <v>774</v>
+        <v>728</v>
       </c>
       <c r="G600" t="n">
         <v>2</v>
@@ -21495,10 +21339,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1063</v>
+        <v>1014</v>
       </c>
       <c r="F602" t="s">
-        <v>1064</v>
+        <v>1015</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21524,10 +21368,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1065</v>
+        <v>1016</v>
       </c>
       <c r="F603" t="s">
-        <v>1066</v>
+        <v>1017</v>
       </c>
       <c r="G603" t="n">
         <v>2</v>
@@ -21582,10 +21426,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1067</v>
+        <v>1018</v>
       </c>
       <c r="F605" t="s">
-        <v>1068</v>
+        <v>1019</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21611,10 +21455,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1069</v>
+        <v>1020</v>
       </c>
       <c r="F606" t="s">
-        <v>1070</v>
+        <v>1021</v>
       </c>
       <c r="G606" t="n">
         <v>2</v>
@@ -21669,10 +21513,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="F608" t="s">
-        <v>724</v>
+        <v>184</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21698,10 +21542,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1071</v>
+        <v>1022</v>
       </c>
       <c r="F609" t="s">
-        <v>1072</v>
+        <v>1023</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21756,10 +21600,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>779</v>
+        <v>733</v>
       </c>
       <c r="F611" t="s">
-        <v>780</v>
+        <v>734</v>
       </c>
       <c r="G611" t="n">
         <v>2</v>
@@ -21785,10 +21629,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1073</v>
+        <v>1024</v>
       </c>
       <c r="F612" t="s">
-        <v>1074</v>
+        <v>488</v>
       </c>
       <c r="G612" t="n">
         <v>2</v>
@@ -21814,10 +21658,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>877</v>
+        <v>831</v>
       </c>
       <c r="F613" t="s">
-        <v>878</v>
+        <v>832</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21843,10 +21687,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1075</v>
+        <v>1025</v>
       </c>
       <c r="F614" t="s">
-        <v>1076</v>
+        <v>1026</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -21872,10 +21716,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>799</v>
+        <v>753</v>
       </c>
       <c r="F615" t="s">
-        <v>800</v>
+        <v>754</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -21901,10 +21745,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>785</v>
+        <v>739</v>
       </c>
       <c r="F616" t="s">
-        <v>786</v>
+        <v>740</v>
       </c>
       <c r="G616" t="n">
         <v>2</v>
@@ -21930,10 +21774,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1077</v>
+        <v>1027</v>
       </c>
       <c r="F617" t="s">
-        <v>1078</v>
+        <v>1028</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -21959,10 +21803,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1079</v>
+        <v>1029</v>
       </c>
       <c r="F618" t="s">
-        <v>1080</v>
+        <v>1030</v>
       </c>
       <c r="G618" t="n">
         <v>2</v>
@@ -21988,10 +21832,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1081</v>
+        <v>1031</v>
       </c>
       <c r="F619" t="s">
-        <v>1082</v>
+        <v>1032</v>
       </c>
       <c r="G619" t="n">
         <v>2</v>
@@ -22017,10 +21861,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1083</v>
+        <v>1033</v>
       </c>
       <c r="F620" t="s">
-        <v>1084</v>
+        <v>1034</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -22075,10 +21919,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1085</v>
+        <v>1035</v>
       </c>
       <c r="F622" t="s">
-        <v>1086</v>
+        <v>1036</v>
       </c>
       <c r="G622" t="n">
         <v>2</v>
@@ -22133,10 +21977,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1087</v>
+        <v>1037</v>
       </c>
       <c r="F624" t="s">
-        <v>1088</v>
+        <v>1038</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22162,10 +22006,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1089</v>
+        <v>1039</v>
       </c>
       <c r="F625" t="s">
-        <v>1090</v>
+        <v>1040</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -22220,10 +22064,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1091</v>
+        <v>1041</v>
       </c>
       <c r="F627" t="s">
-        <v>1092</v>
+        <v>1042</v>
       </c>
       <c r="G627" t="n">
         <v>3</v>
@@ -22249,10 +22093,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1093</v>
+        <v>1043</v>
       </c>
       <c r="F628" t="s">
-        <v>1094</v>
+        <v>1044</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22278,10 +22122,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1095</v>
+        <v>1045</v>
       </c>
       <c r="F629" t="s">
-        <v>1096</v>
+        <v>1046</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22307,10 +22151,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1097</v>
+        <v>1047</v>
       </c>
       <c r="F630" t="s">
-        <v>1098</v>
+        <v>1048</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22336,10 +22180,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1099</v>
+        <v>1049</v>
       </c>
       <c r="F631" t="s">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="G631" t="n">
         <v>3</v>
@@ -22365,10 +22209,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1101</v>
+        <v>1051</v>
       </c>
       <c r="F632" t="s">
-        <v>1102</v>
+        <v>1052</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22394,10 +22238,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1103</v>
+        <v>1053</v>
       </c>
       <c r="F633" t="s">
-        <v>1104</v>
+        <v>1054</v>
       </c>
       <c r="G633" t="n">
         <v>4</v>
@@ -22423,10 +22267,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1105</v>
+        <v>1055</v>
       </c>
       <c r="F634" t="s">
-        <v>1106</v>
+        <v>1056</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22452,10 +22296,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1107</v>
+        <v>1057</v>
       </c>
       <c r="F635" t="s">
-        <v>1108</v>
+        <v>1058</v>
       </c>
       <c r="G635" t="n">
         <v>7</v>
@@ -22481,10 +22325,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1109</v>
+        <v>1059</v>
       </c>
       <c r="F636" t="s">
-        <v>1110</v>
+        <v>1060</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22510,10 +22354,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1111</v>
+        <v>1061</v>
       </c>
       <c r="F637" t="s">
-        <v>1112</v>
+        <v>1062</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22539,10 +22383,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1113</v>
+        <v>1063</v>
       </c>
       <c r="F638" t="s">
-        <v>1114</v>
+        <v>1064</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22568,10 +22412,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>979</v>
+        <v>933</v>
       </c>
       <c r="F639" t="s">
-        <v>980</v>
+        <v>934</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22597,10 +22441,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1115</v>
+        <v>1065</v>
       </c>
       <c r="F640" t="s">
-        <v>1116</v>
+        <v>1066</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22626,10 +22470,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1067</v>
+        <v>1018</v>
       </c>
       <c r="F641" t="s">
-        <v>1068</v>
+        <v>1019</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22655,10 +22499,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1117</v>
+        <v>1067</v>
       </c>
       <c r="F642" t="s">
-        <v>1118</v>
+        <v>1068</v>
       </c>
       <c r="G642" t="n">
         <v>2</v>
@@ -22684,10 +22528,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1119</v>
+        <v>1069</v>
       </c>
       <c r="F643" t="s">
-        <v>1120</v>
+        <v>1070</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -22713,10 +22557,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1121</v>
+        <v>1071</v>
       </c>
       <c r="F644" t="s">
-        <v>1122</v>
+        <v>1072</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22742,10 +22586,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1123</v>
+        <v>1073</v>
       </c>
       <c r="F645" t="s">
-        <v>1124</v>
+        <v>1074</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -22771,10 +22615,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1125</v>
+        <v>1075</v>
       </c>
       <c r="F646" t="s">
-        <v>1126</v>
+        <v>1076</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -22800,10 +22644,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1127</v>
+        <v>1077</v>
       </c>
       <c r="F647" t="s">
-        <v>1128</v>
+        <v>1078</v>
       </c>
       <c r="G647" t="n">
         <v>3</v>
@@ -22829,10 +22673,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1129</v>
+        <v>1079</v>
       </c>
       <c r="F648" t="s">
-        <v>1130</v>
+        <v>1080</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -22858,10 +22702,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1131</v>
+        <v>1081</v>
       </c>
       <c r="F649" t="s">
-        <v>1132</v>
+        <v>1082</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -22887,10 +22731,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1133</v>
+        <v>1083</v>
       </c>
       <c r="F650" t="s">
-        <v>1134</v>
+        <v>1084</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -22916,10 +22760,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1135</v>
+        <v>1085</v>
       </c>
       <c r="F651" t="s">
-        <v>1136</v>
+        <v>1086</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -22945,10 +22789,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1137</v>
+        <v>1087</v>
       </c>
       <c r="F652" t="s">
-        <v>1138</v>
+        <v>1088</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -22974,10 +22818,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1139</v>
+        <v>1089</v>
       </c>
       <c r="F653" t="s">
-        <v>1140</v>
+        <v>1090</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -23003,10 +22847,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1141</v>
+        <v>1091</v>
       </c>
       <c r="F654" t="s">
-        <v>1142</v>
+        <v>1092</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -23032,10 +22876,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1143</v>
+        <v>1093</v>
       </c>
       <c r="F655" t="s">
-        <v>1144</v>
+        <v>1026</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23061,10 +22905,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1145</v>
+        <v>1094</v>
       </c>
       <c r="F656" t="s">
-        <v>1146</v>
+        <v>1095</v>
       </c>
       <c r="G656" t="n">
         <v>2</v>
@@ -23090,10 +22934,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1147</v>
+        <v>1096</v>
       </c>
       <c r="F657" t="s">
-        <v>1148</v>
+        <v>1097</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -23119,10 +22963,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1149</v>
+        <v>1098</v>
       </c>
       <c r="F658" t="s">
-        <v>1150</v>
+        <v>1099</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -23148,10 +22992,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1087</v>
+        <v>1037</v>
       </c>
       <c r="F659" t="s">
-        <v>1088</v>
+        <v>1038</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -23177,10 +23021,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1151</v>
+        <v>1100</v>
       </c>
       <c r="F660" t="s">
-        <v>1152</v>
+        <v>1101</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -23206,10 +23050,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1153</v>
+        <v>1102</v>
       </c>
       <c r="F661" t="s">
-        <v>1154</v>
+        <v>1103</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -23235,10 +23079,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1155</v>
+        <v>1104</v>
       </c>
       <c r="F662" t="s">
-        <v>1156</v>
+        <v>1105</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -23264,10 +23108,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1157</v>
+        <v>1106</v>
       </c>
       <c r="F663" t="s">
-        <v>1158</v>
+        <v>1107</v>
       </c>
       <c r="G663" t="n">
         <v>4</v>
@@ -23293,10 +23137,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1159</v>
+        <v>1108</v>
       </c>
       <c r="F664" t="s">
-        <v>1160</v>
+        <v>1109</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -23322,10 +23166,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1161</v>
+        <v>1110</v>
       </c>
       <c r="F665" t="s">
-        <v>1162</v>
+        <v>1111</v>
       </c>
       <c r="G665" t="n">
         <v>2</v>
@@ -23351,10 +23195,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1163</v>
+        <v>1112</v>
       </c>
       <c r="F666" t="s">
-        <v>1164</v>
+        <v>1113</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -23380,10 +23224,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1165</v>
+        <v>1114</v>
       </c>
       <c r="F667" t="s">
-        <v>1166</v>
+        <v>1115</v>
       </c>
       <c r="G667" t="n">
         <v>1</v>
@@ -23409,10 +23253,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1167</v>
+        <v>1116</v>
       </c>
       <c r="F668" t="s">
-        <v>1168</v>
+        <v>1117</v>
       </c>
       <c r="G668" t="n">
         <v>1</v>
@@ -23438,10 +23282,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1169</v>
+        <v>1118</v>
       </c>
       <c r="F669" t="s">
-        <v>1170</v>
+        <v>1119</v>
       </c>
       <c r="G669" t="n">
         <v>1</v>
@@ -23467,10 +23311,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1171</v>
+        <v>1120</v>
       </c>
       <c r="F670" t="s">
-        <v>1172</v>
+        <v>1121</v>
       </c>
       <c r="G670" t="n">
         <v>1</v>
@@ -23496,10 +23340,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1173</v>
+        <v>1122</v>
       </c>
       <c r="F671" t="s">
-        <v>1174</v>
+        <v>1123</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
@@ -23525,10 +23369,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1175</v>
+        <v>1124</v>
       </c>
       <c r="F672" t="s">
-        <v>1176</v>
+        <v>1125</v>
       </c>
       <c r="G672" t="n">
         <v>1</v>
@@ -23554,10 +23398,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1177</v>
+        <v>1126</v>
       </c>
       <c r="F673" t="s">
-        <v>1178</v>
+        <v>1127</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -23583,10 +23427,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1179</v>
+        <v>1128</v>
       </c>
       <c r="F674" t="s">
-        <v>1180</v>
+        <v>1129</v>
       </c>
       <c r="G674" t="n">
         <v>1</v>
@@ -23612,10 +23456,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1181</v>
+        <v>1130</v>
       </c>
       <c r="F675" t="s">
-        <v>1182</v>
+        <v>1131</v>
       </c>
       <c r="G675" t="n">
         <v>1</v>
@@ -23641,10 +23485,10 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1183</v>
+        <v>1132</v>
       </c>
       <c r="F676" t="s">
-        <v>1184</v>
+        <v>1133</v>
       </c>
       <c r="G676" t="n">
         <v>1</v>
@@ -23670,10 +23514,10 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1185</v>
+        <v>1134</v>
       </c>
       <c r="F677" t="s">
-        <v>1186</v>
+        <v>1135</v>
       </c>
       <c r="G677" t="n">
         <v>2</v>
@@ -23699,10 +23543,10 @@
         <v>677</v>
       </c>
       <c r="E678" t="s">
-        <v>1187</v>
+        <v>1136</v>
       </c>
       <c r="F678" t="s">
-        <v>1188</v>
+        <v>1137</v>
       </c>
       <c r="G678" t="n">
         <v>1</v>
@@ -23728,10 +23572,10 @@
         <v>678</v>
       </c>
       <c r="E679" t="s">
-        <v>1189</v>
+        <v>1138</v>
       </c>
       <c r="F679" t="s">
-        <v>1190</v>
+        <v>1139</v>
       </c>
       <c r="G679" t="n">
         <v>1</v>
@@ -23757,10 +23601,10 @@
         <v>679</v>
       </c>
       <c r="E680" t="s">
-        <v>1191</v>
+        <v>1140</v>
       </c>
       <c r="F680" t="s">
-        <v>1192</v>
+        <v>1141</v>
       </c>
       <c r="G680" t="n">
         <v>1</v>
@@ -23786,10 +23630,10 @@
         <v>680</v>
       </c>
       <c r="E681" t="s">
-        <v>1193</v>
+        <v>1142</v>
       </c>
       <c r="F681" t="s">
-        <v>1194</v>
+        <v>1143</v>
       </c>
       <c r="G681" t="n">
         <v>1</v>
@@ -23815,10 +23659,10 @@
         <v>681</v>
       </c>
       <c r="E682" t="s">
-        <v>1195</v>
+        <v>1144</v>
       </c>
       <c r="F682" t="s">
-        <v>1196</v>
+        <v>1145</v>
       </c>
       <c r="G682" t="n">
         <v>1</v>
@@ -23844,10 +23688,10 @@
         <v>682</v>
       </c>
       <c r="E683" t="s">
-        <v>1197</v>
+        <v>1146</v>
       </c>
       <c r="F683" t="s">
-        <v>1198</v>
+        <v>1147</v>
       </c>
       <c r="G683" t="n">
         <v>1</v>
@@ -23873,10 +23717,10 @@
         <v>683</v>
       </c>
       <c r="E684" t="s">
-        <v>1199</v>
+        <v>1148</v>
       </c>
       <c r="F684" t="s">
-        <v>1200</v>
+        <v>1149</v>
       </c>
       <c r="G684" t="n">
         <v>1</v>
@@ -23902,10 +23746,10 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>1201</v>
+        <v>1150</v>
       </c>
       <c r="F685" t="s">
-        <v>1202</v>
+        <v>962</v>
       </c>
       <c r="G685" t="n">
         <v>1</v>
@@ -23931,10 +23775,10 @@
         <v>685</v>
       </c>
       <c r="E686" t="s">
-        <v>1203</v>
+        <v>1151</v>
       </c>
       <c r="F686" t="s">
-        <v>1204</v>
+        <v>1152</v>
       </c>
       <c r="G686" t="n">
         <v>1</v>
@@ -23960,10 +23804,10 @@
         <v>686</v>
       </c>
       <c r="E687" t="s">
-        <v>1205</v>
+        <v>1153</v>
       </c>
       <c r="F687" t="s">
-        <v>1206</v>
+        <v>1154</v>
       </c>
       <c r="G687" t="n">
         <v>6</v>
@@ -23989,10 +23833,10 @@
         <v>687</v>
       </c>
       <c r="E688" t="s">
-        <v>1205</v>
+        <v>1153</v>
       </c>
       <c r="F688" t="s">
-        <v>1206</v>
+        <v>1154</v>
       </c>
       <c r="G688" t="n">
         <v>1</v>
@@ -24018,10 +23862,10 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1203</v>
+        <v>1151</v>
       </c>
       <c r="F689" t="s">
-        <v>1204</v>
+        <v>1152</v>
       </c>
       <c r="G689" t="n">
         <v>1</v>
@@ -24047,10 +23891,10 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>1207</v>
+        <v>1155</v>
       </c>
       <c r="F690" t="s">
-        <v>1208</v>
+        <v>1156</v>
       </c>
       <c r="G690" t="n">
         <v>1</v>
@@ -24076,10 +23920,10 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1209</v>
+        <v>1157</v>
       </c>
       <c r="F691" t="s">
-        <v>1210</v>
+        <v>1158</v>
       </c>
       <c r="G691" t="n">
         <v>1</v>
@@ -24105,10 +23949,10 @@
         <v>691</v>
       </c>
       <c r="E692" t="s">
-        <v>1211</v>
+        <v>1159</v>
       </c>
       <c r="F692" t="s">
-        <v>1212</v>
+        <v>1160</v>
       </c>
       <c r="G692" t="n">
         <v>1</v>
@@ -24134,10 +23978,10 @@
         <v>692</v>
       </c>
       <c r="E693" t="s">
-        <v>1213</v>
+        <v>1161</v>
       </c>
       <c r="F693" t="s">
-        <v>1214</v>
+        <v>1162</v>
       </c>
       <c r="G693" t="n">
         <v>1</v>
@@ -24163,10 +24007,10 @@
         <v>693</v>
       </c>
       <c r="E694" t="s">
-        <v>1215</v>
+        <v>1163</v>
       </c>
       <c r="F694" t="s">
-        <v>1216</v>
+        <v>1164</v>
       </c>
       <c r="G694" t="n">
         <v>1</v>
@@ -24192,10 +24036,10 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>1217</v>
+        <v>1165</v>
       </c>
       <c r="F695" t="s">
-        <v>1218</v>
+        <v>1166</v>
       </c>
       <c r="G695" t="n">
         <v>1</v>
@@ -24221,10 +24065,10 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>1219</v>
+        <v>1167</v>
       </c>
       <c r="F696" t="s">
-        <v>1220</v>
+        <v>1168</v>
       </c>
       <c r="G696" t="n">
         <v>1</v>
@@ -24250,10 +24094,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>1221</v>
+        <v>1169</v>
       </c>
       <c r="F697" t="s">
-        <v>1222</v>
+        <v>1170</v>
       </c>
       <c r="G697" t="n">
         <v>1</v>
@@ -24279,10 +24123,10 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>1223</v>
+        <v>1171</v>
       </c>
       <c r="F698" t="s">
-        <v>1224</v>
+        <v>1172</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
@@ -24308,10 +24152,10 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>1225</v>
+        <v>1173</v>
       </c>
       <c r="F699" t="s">
-        <v>1226</v>
+        <v>1174</v>
       </c>
       <c r="G699" t="n">
         <v>7</v>
@@ -24337,10 +24181,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>1225</v>
+        <v>1173</v>
       </c>
       <c r="F700" t="s">
-        <v>1227</v>
+        <v>1175</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
